--- a/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Riyan Parag.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Riyan Parag.xlsx
@@ -439,37 +439,37 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 22 2020</v>
+        <v xml:space="preserve"> Oct 3 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C2" t="str">
-        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="F2" t="str">
         <v>Riyan Parag</v>
       </c>
       <c r="G2" t="str">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2" t="str">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>166.66</v>
+        <v>88.88</v>
       </c>
     </row>
     <row r="3">
@@ -509,37 +509,37 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 3 2020</v>
+        <v xml:space="preserve"> Oct 22 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E4" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F4" t="str">
         <v>Riyan Parag</v>
       </c>
       <c r="G4" t="str">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I4" t="str">
+        <v>2</v>
+      </c>
+      <c r="J4" t="str">
         <v>1</v>
       </c>
-      <c r="J4" t="str">
-        <v>0</v>
-      </c>
       <c r="K4" t="str">
-        <v>88.88</v>
+        <v>166.66</v>
       </c>
     </row>
   </sheetData>
